--- a/db/import/geo_group.xlsx
+++ b/db/import/geo_group.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="161">
   <si>
     <t xml:space="preserve">geography</t>
   </si>
@@ -28,244 +28,481 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Rogers Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rogers_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-West Ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west_ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Uptown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Lincoln Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lincoln_square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-North Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">north_center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Lakeview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lake_view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Lincoln Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lincoln_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-Near North Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near_north_side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Edison Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edison_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Norwood Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norwood_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-Jefferson Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jefferson_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-Forest Glen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest_glen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-North Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">north_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-Albany Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albany_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-Portage Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portage_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Irving Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irving_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Dunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Monclare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">montclare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Belmont Cragin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belmont_cragin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-Hermosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hermosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-Avondale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avondale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-Logan Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logan_square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-Humboldt Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humboldt_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-West Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west_town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-West Garfield Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west_garfield_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-East Garfield Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">east_garfield_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-Near West Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near_west_side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-North Lawndale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">north_lawndale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-South Lawndale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south_lawndale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-Lower West Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_west_side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32-Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33-Near South Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near_south_side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34-Armour Square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armour_square</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36-Oakland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oakland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37-Fuller Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuller_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38-Grand Boulevard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grand_boulevard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39-Kenwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-Washington Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">washington_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41-Hyde Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyde_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42-Woodlawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woodlawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43-South Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-Chatham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chatham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-Avalon Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avalon_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46-South Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south_chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47-Burnside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burnside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48-Calumet Heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calumet_heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49-Roseland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roseland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-Pullman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pullman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51-South Deering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south_deering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52-East Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">east_side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53-West Pullman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west_pullman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54-Riverdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riverdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55-Hegewisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hegewisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56-Garfield Ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garfield_ridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57-Archer Heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archer_heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58-Brighton Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brighton_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59-McKinley Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mckinley_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60-Bridgeport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridgeport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61-New City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62-West Elsdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west_elsdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63-Gage Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gage_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-Clearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65-West Lawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west_lawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66-Chicago Lawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicago_lawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67-West Englewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west_englewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68-Englewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">englewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69-Greater Grand Crossing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greater_grand_crossing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-Ashburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-Auburn Gresham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auburn_gresham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-Beverly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beverly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73-Washington Heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">washington_heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74-Mount Greenwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount_greenwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75-Morgan Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morgan_park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76-O'Hare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ohare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77-Edgewater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edgewater</t>
+  </si>
+  <si>
     <t xml:space="preserve">City</t>
   </si>
   <si>
     <t xml:space="preserve">Chicago</t>
   </si>
   <si>
-    <t xml:space="preserve">Community Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Rogers Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-West Ridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Uptown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Lincoln Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-North Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-Lakeview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Lincoln Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-Near North Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-Edison Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-Norwood Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-Jefferson Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-Forest Glen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-North Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-Albany Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-Portage Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-Irving Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Dunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-Monclare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-Belmont Cragin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-Hermosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-Avondale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-Logan Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-Humboldt Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-West Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-Austin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-West Garfield Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-East Garfield Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-Near West Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-North Lawndale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-South Lawndale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-Lower West Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32-Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33-Near South Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34-Armour Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35-Douglas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36-Oakland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37-Fuller Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38-Grand Boulevard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39-Kenwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40-Washington Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41-Hyde Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42-Woodlawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43-South Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44-Chatham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45-Avalon Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46-South Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47-Burnside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48-Calumet Heights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49-Roseland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-Pullman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51-South Deering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52-East Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53-West Pullman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54-Riverdale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55-Hegewisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56-Garfield Ridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57-Archer Heights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58-Brighton Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59-McKinley Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60-Bridgeport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61-New City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62-West Elsdon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63-Gage Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64-Clearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65-West Lawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66-Chicago Lawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67-West Englewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68-Englewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69-Greater Grand Crossing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-Ashburn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71-Auburn Gresham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72-Beverly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73-Washington Heights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74-Mount Greenwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75-Morgan Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76-O'Hare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77-Edgewater</t>
+    <t xml:space="preserve">chicago</t>
   </si>
 </sst>
 </file>
@@ -280,6 +517,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -385,647 +623,881 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>130</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>134</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>142</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>144</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>150</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>152</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>154</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>81</v>
+        <v>159</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
